--- a/data/cement/factories/cement_factory-0C.xlsx
+++ b/data/cement/factories/cement_factory-0C.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC5C51-0238-ED46-BFD3-BDC0881F4E6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A304650F-0860-4543-92FF-2FFF5B85C931}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="460" windowWidth="17060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="18720" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="chains" sheetId="9" r:id="rId1"/>
-    <sheet name="connections" sheetId="1" r:id="rId2"/>
-    <sheet name="cement" sheetId="2" r:id="rId3"/>
+    <sheet name="chains" sheetId="10" r:id="rId1"/>
+    <sheet name="connections" sheetId="11" r:id="rId2"/>
+    <sheet name="cement" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Inflow</t>
   </si>
@@ -44,9 +44,6 @@
     <t>START</t>
   </si>
   <si>
-    <t>meta-process</t>
-  </si>
-  <si>
     <t>inflow</t>
   </si>
   <si>
@@ -125,15 +122,6 @@
     <t>simple_power</t>
   </si>
   <si>
-    <t>charcoal</t>
-  </si>
-  <si>
-    <t>simple_charcoal</t>
-  </si>
-  <si>
-    <t>biofuel</t>
-  </si>
-  <si>
     <t>cement</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>ground meal</t>
   </si>
   <si>
-    <t>heated meal</t>
-  </si>
-  <si>
     <t>calcined meal</t>
   </si>
   <si>
@@ -170,23 +155,14 @@
     <t>cool clinker</t>
   </si>
   <si>
-    <t>fuel</t>
-  </si>
-  <si>
-    <t>cement_oxygen</t>
-  </si>
-  <si>
-    <t>cement_power</t>
-  </si>
-  <si>
-    <t>cement_charcoal</t>
+    <t>hot meal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,14 +179,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,13 +213,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -567,98 +534,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825E21A-20CA-5B40-BC23-BE1165D9F316}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="1"/>
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -666,56 +608,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08776F1A-DE62-ED45-B5C7-44537BA06657}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -723,202 +651,84 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="5"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="5"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,18 +736,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9817A371-0D84-1846-A5E6-FE3369707496}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -945,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -956,65 +766,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
